--- a/2022/Realme/February/21.02.2022/realme Bank Statement January-2022.xlsx
+++ b/2022/Realme/February/21.02.2022/realme Bank Statement January-2022.xlsx
@@ -225,9 +225,6 @@
     <t>L= Rasel Telecom</t>
   </si>
   <si>
-    <t>28.10.2021</t>
-  </si>
-  <si>
     <t>Biswash Telecom</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>Date: 21.02.2022</t>
+  </si>
+  <si>
+    <t>22.02.2022</t>
   </si>
 </sst>
 </file>
@@ -2587,6 +2587,18 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2614,12 +2626,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2630,12 +2636,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2919,14 +2919,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1689101</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1879601</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>220663</xdr:rowOff>
     </xdr:to>
@@ -2958,7 +2958,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1577975" y="31750"/>
+          <a:off x="1689101" y="31750"/>
           <a:ext cx="190500" cy="188913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3312,7 +3312,7 @@
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="261" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="261"/>
       <c r="D2" s="261"/>
@@ -3364,7 +3364,7 @@
     <row r="6" spans="1:11">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="19">
         <v>900000</v>
@@ -3386,7 +3386,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="19">
         <v>2000000</v>
@@ -3407,7 +3407,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="15"/>
       <c r="B8" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="19">
         <v>830000</v>
@@ -3428,7 +3428,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="15"/>
       <c r="B9" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="22">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     <row r="10" spans="1:11">
       <c r="A10" s="15"/>
       <c r="B10" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="19">
         <v>480000</v>
@@ -3470,7 +3470,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="15"/>
       <c r="B11" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="19">
         <v>85000</v>
@@ -3489,7 +3489,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="15"/>
       <c r="B12" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="19">
         <v>280000</v>
@@ -3510,7 +3510,7 @@
     <row r="13" spans="1:11">
       <c r="A13" s="15"/>
       <c r="B13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="19">
         <v>170000</v>
@@ -3531,7 +3531,7 @@
     <row r="14" spans="1:11">
       <c r="A14" s="15"/>
       <c r="B14" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="19">
         <v>99000</v>
@@ -3552,7 +3552,7 @@
     <row r="15" spans="1:11">
       <c r="A15" s="15"/>
       <c r="B15" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="19">
         <v>700000</v>
@@ -3573,7 +3573,7 @@
     <row r="16" spans="1:11">
       <c r="A16" s="15"/>
       <c r="B16" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="19">
         <v>45000</v>
@@ -3594,7 +3594,7 @@
     <row r="17" spans="1:10">
       <c r="A17" s="15"/>
       <c r="B17" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="19">
         <v>270000</v>
@@ -3615,7 +3615,7 @@
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="19">
         <v>100000</v>
@@ -3645,7 +3645,7 @@
         <v>9987</v>
       </c>
       <c r="F19" s="214" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3655,7 +3655,7 @@
     <row r="20" spans="1:10">
       <c r="A20" s="15"/>
       <c r="B20" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="19">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     <row r="21" spans="1:10">
       <c r="A21" s="15"/>
       <c r="B21" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="19">
         <v>80000</v>
@@ -3697,7 +3697,7 @@
     <row r="22" spans="1:10">
       <c r="A22" s="15"/>
       <c r="B22" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="19">
         <v>750000</v>
@@ -3718,7 +3718,7 @@
     <row r="23" spans="1:10">
       <c r="A23" s="15"/>
       <c r="B23" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="19">
         <v>200000</v>
@@ -3739,7 +3739,7 @@
     <row r="24" spans="1:10">
       <c r="A24" s="15"/>
       <c r="B24" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="19">
         <v>20000</v>
@@ -3760,7 +3760,7 @@
     <row r="25" spans="1:10">
       <c r="A25" s="15"/>
       <c r="B25" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="19">
         <v>410000</v>
@@ -3781,7 +3781,7 @@
     <row r="26" spans="1:10">
       <c r="A26" s="15"/>
       <c r="B26" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="19">
         <v>320000</v>
@@ -3802,7 +3802,7 @@
     <row r="27" spans="1:10">
       <c r="A27" s="15"/>
       <c r="B27" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="19">
         <v>900000</v>
@@ -3823,7 +3823,7 @@
     <row r="28" spans="1:10">
       <c r="A28" s="15"/>
       <c r="B28" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="19">
         <v>0</v>
@@ -3844,7 +3844,7 @@
     <row r="29" spans="1:10">
       <c r="A29" s="15"/>
       <c r="B29" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="19">
         <v>3000000</v>
@@ -3865,7 +3865,7 @@
     <row r="30" spans="1:10">
       <c r="A30" s="15"/>
       <c r="B30" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="19">
         <v>3300000</v>
@@ -3886,7 +3886,7 @@
     <row r="31" spans="1:10">
       <c r="A31" s="15"/>
       <c r="B31" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="19">
         <v>0</v>
@@ -4221,67 +4221,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="266" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="262"/>
-      <c r="O1" s="262"/>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="266"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="266"/>
+      <c r="Q1" s="266"/>
     </row>
     <row r="2" spans="1:24" s="94" customFormat="1" ht="18">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="263"/>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="267"/>
+      <c r="M2" s="267"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
     </row>
     <row r="3" spans="1:24" s="95" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="264" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="265"/>
-      <c r="M3" s="265"/>
-      <c r="N3" s="265"/>
-      <c r="O3" s="265"/>
-      <c r="P3" s="265"/>
-      <c r="Q3" s="266"/>
+      <c r="A3" s="268" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="269"/>
+      <c r="O3" s="269"/>
+      <c r="P3" s="269"/>
+      <c r="Q3" s="270"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4290,52 +4290,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="97" customFormat="1">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="271" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="269" t="s">
+      <c r="B4" s="273" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="271" t="s">
+      <c r="C4" s="262" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="271" t="s">
+      <c r="D4" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="271" t="s">
+      <c r="E4" s="262" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="271" t="s">
+      <c r="F4" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="271" t="s">
+      <c r="G4" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="271" t="s">
+      <c r="H4" s="262" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="271" t="s">
+      <c r="I4" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="271" t="s">
+      <c r="J4" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="271" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="271" t="s">
+      <c r="K4" s="262" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="271" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" s="277" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="275" t="s">
+      <c r="M4" s="262" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="264" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="273" t="s">
+      <c r="P4" s="275" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="96" t="s">
@@ -4348,22 +4348,22 @@
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:24" s="97" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="268"/>
-      <c r="B5" s="270"/>
-      <c r="C5" s="272"/>
-      <c r="D5" s="272"/>
-      <c r="E5" s="272"/>
-      <c r="F5" s="272"/>
-      <c r="G5" s="272"/>
-      <c r="H5" s="272"/>
-      <c r="I5" s="272"/>
-      <c r="J5" s="272"/>
-      <c r="K5" s="272"/>
-      <c r="L5" s="272"/>
-      <c r="M5" s="272"/>
-      <c r="N5" s="278"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="274"/>
+      <c r="A5" s="272"/>
+      <c r="B5" s="274"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="263"/>
+      <c r="M5" s="263"/>
+      <c r="N5" s="265"/>
+      <c r="O5" s="278"/>
+      <c r="P5" s="276"/>
       <c r="Q5" s="101" t="s">
         <v>36</v>
       </c>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="6" spans="1:24" s="9" customFormat="1">
       <c r="A6" s="105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="106">
         <v>500</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="7" spans="1:24" s="9" customFormat="1">
       <c r="A7" s="105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="106"/>
       <c r="C7" s="106"/>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="8" spans="1:24" s="9" customFormat="1">
       <c r="A8" s="105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="113"/>
       <c r="C8" s="106"/>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="9" spans="1:24" s="9" customFormat="1">
       <c r="A9" s="105" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="113">
         <v>500</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1">
       <c r="A10" s="105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="113"/>
       <c r="C10" s="106"/>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="11" spans="1:24" s="9" customFormat="1">
       <c r="A11" s="105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="113"/>
       <c r="C11" s="106"/>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="12" spans="1:24" s="9" customFormat="1">
       <c r="A12" s="105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="113">
         <v>500</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="13" spans="1:24" s="9" customFormat="1">
       <c r="A13" s="105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="113"/>
       <c r="C13" s="106"/>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="14" spans="1:24" s="9" customFormat="1">
       <c r="A14" s="105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="113"/>
       <c r="C14" s="106"/>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="15" spans="1:24" s="9" customFormat="1">
       <c r="A15" s="105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="113">
         <v>500</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="16" spans="1:24" s="9" customFormat="1">
       <c r="A16" s="105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="113"/>
       <c r="C16" s="106"/>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="17" spans="1:23" s="9" customFormat="1">
       <c r="A17" s="105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="106"/>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="18" spans="1:23" s="9" customFormat="1">
       <c r="A18" s="105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="113">
         <v>500</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="19" spans="1:23" s="9" customFormat="1">
       <c r="A19" s="105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="113"/>
       <c r="C19" s="106"/>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="20" spans="1:23" s="9" customFormat="1">
       <c r="A20" s="105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="106"/>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="21" spans="1:23" s="9" customFormat="1">
       <c r="A21" s="105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="113">
         <v>500</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="22" spans="1:23" s="9" customFormat="1">
       <c r="A22" s="105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="113"/>
       <c r="C22" s="106">
@@ -5002,7 +5002,7 @@
     </row>
     <row r="23" spans="1:23" s="121" customFormat="1">
       <c r="A23" s="105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="113"/>
       <c r="C23" s="106"/>
@@ -7415,6 +7415,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7431,9 +7434,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7445,15 +7445,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI232"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="91" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="36" bestFit="1" customWidth="1"/>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1">
       <c r="A2" s="289" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="289"/>
       <c r="C2" s="289"/>
@@ -9432,11 +9432,11 @@
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
       <c r="D30" s="43">
-        <v>-783410</v>
+        <v>-779910</v>
       </c>
       <c r="E30" s="43">
         <f t="shared" si="0"/>
-        <v>-783410</v>
+        <v>-779910</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="57"/>
@@ -9642,15 +9642,15 @@
       <c r="C33" s="43"/>
       <c r="D33" s="43">
         <f>SUM(D5:D32)</f>
-        <v>-783410</v>
+        <v>-779910</v>
       </c>
       <c r="E33" s="43">
         <f>SUM(E5:E32)</f>
-        <v>-783410</v>
+        <v>-779910</v>
       </c>
       <c r="F33" s="43">
         <f>B33-E33</f>
-        <v>783410</v>
+        <v>779910</v>
       </c>
       <c r="G33" s="60"/>
       <c r="H33" s="156"/>
@@ -9906,14 +9906,14 @@
     </row>
     <row r="37" spans="1:61" ht="14.25">
       <c r="A37" s="245" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="245"/>
       <c r="C37" s="246">
         <v>31990</v>
       </c>
       <c r="D37" s="250" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="39"/>
@@ -9975,16 +9975,16 @@
     </row>
     <row r="38" spans="1:61" ht="14.25">
       <c r="A38" s="247" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="254" t="s">
         <v>57</v>
-      </c>
-      <c r="B38" s="254" t="s">
-        <v>58</v>
       </c>
       <c r="C38" s="248">
         <v>1800</v>
       </c>
       <c r="D38" s="251" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="43"/>
@@ -10046,14 +10046,14 @@
     </row>
     <row r="39" spans="1:61" ht="14.25">
       <c r="A39" s="247" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="247"/>
       <c r="C39" s="248">
         <v>31990</v>
       </c>
       <c r="D39" s="252" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="39"/>
@@ -10115,16 +10115,16 @@
     </row>
     <row r="40" spans="1:61" ht="14.25">
       <c r="A40" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="247" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="247" t="s">
-        <v>55</v>
-      </c>
       <c r="C40" s="248">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D40" s="252" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="39"/>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="41" spans="1:61" ht="14.25">
       <c r="A41" s="247" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="247" t="s">
         <v>46</v>
@@ -10195,7 +10195,7 @@
         <v>4460</v>
       </c>
       <c r="D41" s="253" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="65"/>
       <c r="F41" s="39"/>
@@ -10266,7 +10266,7 @@
         <v>134550</v>
       </c>
       <c r="D42" s="252" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" s="178"/>
       <c r="G42" s="67"/>
@@ -10327,7 +10327,7 @@
     </row>
     <row r="43" spans="1:61" ht="14.25">
       <c r="A43" s="247" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="247" t="s">
         <v>46</v>
@@ -10336,7 +10336,7 @@
         <v>290000</v>
       </c>
       <c r="D43" s="253" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="299" t="s">
@@ -10400,16 +10400,16 @@
     </row>
     <row r="44" spans="1:61" ht="14.25">
       <c r="A44" s="247" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="247" t="s">
         <v>101</v>
-      </c>
-      <c r="B44" s="247" t="s">
-        <v>102</v>
       </c>
       <c r="C44" s="248">
         <v>1000</v>
       </c>
       <c r="D44" s="252" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="179"/>
@@ -10470,14 +10470,14 @@
     </row>
     <row r="45" spans="1:61" ht="14.25">
       <c r="A45" s="247" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="247"/>
       <c r="C45" s="248">
         <v>27510</v>
       </c>
       <c r="D45" s="253" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="70"/>
@@ -10538,16 +10538,16 @@
     </row>
     <row r="46" spans="1:61" ht="14.25">
       <c r="A46" s="247" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="247" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="248">
         <v>37340</v>
       </c>
       <c r="D46" s="252" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="153"/>
@@ -10608,16 +10608,16 @@
     </row>
     <row r="47" spans="1:61" ht="14.25">
       <c r="A47" s="247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="247" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="248">
         <v>3000</v>
       </c>
       <c r="D47" s="252" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="153"/>
@@ -10678,16 +10678,16 @@
     </row>
     <row r="48" spans="1:61" ht="14.25">
       <c r="A48" s="249" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="247" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="248">
         <v>31990</v>
       </c>
       <c r="D48" s="252" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="150"/>
@@ -10748,16 +10748,16 @@
     </row>
     <row r="49" spans="1:61" ht="14.25">
       <c r="A49" s="247" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="247" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="248">
         <v>38400</v>
       </c>
       <c r="D49" s="252" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="150"/>
@@ -10818,14 +10818,14 @@
     </row>
     <row r="50" spans="1:61" ht="14.25">
       <c r="A50" s="247" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" s="247"/>
       <c r="C50" s="248">
         <v>40000</v>
       </c>
       <c r="D50" s="252" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="47"/>
       <c r="F50" s="150"/>
@@ -10886,14 +10886,14 @@
     </row>
     <row r="51" spans="1:61" ht="14.25">
       <c r="A51" s="247" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B51" s="247"/>
       <c r="C51" s="248">
         <v>16340</v>
       </c>
       <c r="D51" s="252" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="153"/>
@@ -10954,14 +10954,14 @@
     </row>
     <row r="52" spans="1:61" ht="14.25">
       <c r="A52" s="247" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" s="247"/>
       <c r="C52" s="248">
         <v>300</v>
       </c>
       <c r="D52" s="253" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="47"/>
       <c r="F52" s="153"/>
@@ -11022,14 +11022,14 @@
     </row>
     <row r="53" spans="1:61" ht="14.25">
       <c r="A53" s="247" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53" s="247"/>
       <c r="C53" s="248">
         <v>86740</v>
       </c>
       <c r="D53" s="252" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" s="47"/>
       <c r="F53" s="153"/>
@@ -15174,7 +15174,7 @@
       <c r="B119" s="282"/>
       <c r="C119" s="243">
         <f>SUM(C37:C118)</f>
-        <v>783410</v>
+        <v>779910</v>
       </c>
       <c r="D119" s="242"/>
       <c r="F119" s="81"/>
@@ -16617,7 +16617,7 @@
   <dimension ref="A1:AC222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16654,7 +16654,7 @@
     </row>
     <row r="2" spans="1:29" ht="21.75">
       <c r="A2" s="311" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="312"/>
       <c r="C2" s="312"/>
@@ -16665,7 +16665,7 @@
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
       <c r="A3" s="305" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="306"/>
       <c r="C3" s="306"/>
@@ -16733,7 +16733,7 @@
     </row>
     <row r="5" spans="1:29" ht="21.75">
       <c r="A5" s="203" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="204">
         <v>9000000</v>
@@ -16776,7 +16776,7 @@
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="164" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="170">
         <v>67047</v>
@@ -16808,10 +16808,10 @@
       <c r="B7" s="196"/>
       <c r="C7" s="32"/>
       <c r="D7" s="164" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="193">
-        <v>489501.40000000037</v>
+        <v>493001.40000000037</v>
       </c>
       <c r="F7" s="199"/>
       <c r="H7" s="29"/>
@@ -16900,7 +16900,7 @@
     </row>
     <row r="10" spans="1:29" ht="21.75">
       <c r="A10" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="169">
         <v>16358</v>
@@ -16910,7 +16910,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="170">
-        <v>783410</v>
+        <v>779910</v>
       </c>
       <c r="F10" s="199"/>
       <c r="G10" s="29"/>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="164" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="170">
         <v>59440</v>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="14" spans="1:29" ht="21.75">
       <c r="A14" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="169">
         <v>1000000</v>
@@ -17088,7 +17088,7 @@
     </row>
     <row r="15" spans="1:29" ht="21.75">
       <c r="A15" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="169">
         <v>3000000</v>
@@ -17233,14 +17233,14 @@
     </row>
     <row r="19" spans="1:29" ht="21.75">
       <c r="A19" s="197" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="201">
         <v>31990</v>
       </c>
       <c r="C19" s="198"/>
       <c r="D19" s="198" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="202">
         <v>38400</v>
@@ -17278,7 +17278,7 @@
       </c>
       <c r="C20" s="210"/>
       <c r="D20" s="208" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="212">
         <v>32000</v>
@@ -17310,14 +17310,14 @@
     </row>
     <row r="21" spans="1:29" s="1" customFormat="1" ht="21.75">
       <c r="A21" s="211" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="209">
         <v>290000</v>
       </c>
       <c r="C21" s="210"/>
       <c r="D21" s="208" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="212">
         <v>32000</v>
@@ -17327,14 +17327,14 @@
     </row>
     <row r="22" spans="1:29" s="1" customFormat="1" ht="21.75">
       <c r="A22" s="255" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="256">
         <v>40000</v>
       </c>
       <c r="C22" s="257"/>
       <c r="D22" s="258" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="259">
         <v>35000</v>
@@ -17344,14 +17344,14 @@
     </row>
     <row r="23" spans="1:29" s="1" customFormat="1" ht="22.5" thickBot="1">
       <c r="A23" s="219" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="220">
         <v>86740</v>
       </c>
       <c r="C23" s="171"/>
       <c r="D23" s="221" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="222">
         <v>37340</v>
